--- a/tables/table_general_admissions_2011_2019.xlsx
+++ b/tables/table_general_admissions_2011_2019.xlsx
@@ -205,10 +205,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O22" activeCellId="0" sqref="O22"/>
+      <selection pane="topLeft" activeCell="Q22" activeCellId="0" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -217,9 +217,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="12.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,13 +256,13 @@
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="N1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -274,44 +274,43 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5285633</v>
+        <v>7184625</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>5213074</v>
+        <v>7060427</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5246687</v>
+        <v>7076345</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5304161</v>
+        <v>7188454</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5265162</v>
+        <v>7183037</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>5218627</v>
+        <v>7088420</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>5286445</v>
+        <v>7259345</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>5445551</v>
+        <v>7494983</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>5622312</v>
+        <v>7669083</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>6.36970065836959</v>
-      </c>
-      <c r="M2" s="3"/>
+        <v>6.74298241035545</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0.810210347927232</v>
+      </c>
       <c r="N2" s="3" t="n">
-        <v>0.640487531477563</v>
+        <v>0.800732793666747</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>0.629447580451981</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>0.651528693684589</v>
+        <v>0.819688793292706</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,44 +321,43 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>327734</v>
+        <v>333510</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>339743</v>
+        <v>345864</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>350228</v>
+        <v>356388</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>367284</v>
+        <v>373715</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>372322</v>
+        <v>378838</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>378607</v>
+        <v>385031</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>395949</v>
+        <v>403325</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>413039</v>
+        <v>420846</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>443166</v>
+        <v>452208</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>35.2212464986849</v>
-      </c>
-      <c r="M3" s="3"/>
+        <v>35.5905370153818</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>3.56802009203969</v>
+      </c>
       <c r="N3" s="3" t="n">
-        <v>3.53963074673582</v>
+        <v>3.52559420906431</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>3.49683407957595</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>3.58244511061789</v>
+        <v>3.61046336159045</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,44 +368,43 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>4957899</v>
+        <v>6851115</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>4873331</v>
+        <v>6714563</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4896459</v>
+        <v>6719957</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4936877</v>
+        <v>6814739</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4892840</v>
+        <v>6804199</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>4840020</v>
+        <v>6703389</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>4890496</v>
+        <v>6856020</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>5032512</v>
+        <v>7074137</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>5179146</v>
+        <v>7216875</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>4.4625152710856</v>
-      </c>
-      <c r="M4" s="3"/>
+        <v>5.33869304485474</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0.658632039965479</v>
+      </c>
       <c r="N4" s="3" t="n">
-        <v>0.423520313316983</v>
+        <v>0.648908462221431</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.412093045741768</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>0.434948881357533</v>
+        <v>0.668356557093452</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,44 +415,43 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>2257441</v>
+        <v>4111169</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2208659</v>
+        <v>4012370</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2168720</v>
+        <v>3954029</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2177013</v>
+        <v>4014503</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2107769</v>
+        <v>3978460</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>2063703</v>
+        <v>3886712</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>2038668</v>
+        <v>3963227</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>2097178</v>
+        <v>4096651</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>2137618</v>
+        <v>4133201</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>-5.30791280923843</v>
-      </c>
-      <c r="M5" s="3"/>
+        <v>0.535905967378135</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>0.0961350720773524</v>
+      </c>
       <c r="N5" s="3" t="n">
-        <v>-0.920570653664787</v>
+        <v>0.0834985269954514</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>-0.937711176959255</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>-0.903427164584436</v>
+        <v>0.108773212649749</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,44 +462,43 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>83687</v>
+        <v>88522</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>84820</v>
+        <v>89950</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>83926</v>
+        <v>89100</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>85694</v>
+        <v>91152</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>84740</v>
+        <v>90192</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>85256</v>
+        <v>90649</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>86869</v>
+        <v>93125</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>88797</v>
+        <v>95494</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>95226</v>
+        <v>102905</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>13.7882825289471</v>
-      </c>
-      <c r="M6" s="3"/>
+        <v>16.247938365604</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>1.48614332589181</v>
+      </c>
       <c r="N6" s="3" t="n">
-        <v>1.23113901641465</v>
+        <v>1.40163694230189</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>1.14408648459332</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>1.31826647247086</v>
+        <v>1.57072013565123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,44 +509,43 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>2173754</v>
+        <v>4022647</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2123839</v>
+        <v>3922420</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2084794</v>
+        <v>3864929</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2091319</v>
+        <v>3923351</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2023029</v>
+        <v>3888268</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1978447</v>
+        <v>3796063</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>1951799</v>
+        <v>3870102</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>2008381</v>
+        <v>4001157</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>2042392</v>
+        <v>4030296</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>-6.04309411276529</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>0.190148427142625</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0.0636676279243797</v>
+      </c>
       <c r="N7" s="3" t="n">
-        <v>-1.01029393773976</v>
+        <v>0.0508874432200823</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>-1.02777680240122</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>-0.992807984832467</v>
+        <v>0.0764494451291453</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,44 +556,43 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>901122</v>
+        <v>928813</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>896375</v>
+        <v>922899</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>909225</v>
+        <v>936049</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>922278</v>
+        <v>950645</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>915649</v>
+        <v>943796</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>912529</v>
+        <v>940193</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>918994</v>
+        <v>947681</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>951959</v>
+        <v>981342</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>981032</v>
+        <v>1010395</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>8.86783365626408</v>
-      </c>
-      <c r="M8" s="3"/>
+        <v>8.78346879296478</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0.905507103380021</v>
+      </c>
       <c r="N8" s="3" t="n">
-        <v>0.899846520816028</v>
+        <v>0.879328786785827</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>0.873274790606637</v>
-      </c>
-      <c r="P8" s="3" t="n">
-        <v>0.926425250469509</v>
+        <v>0.931692213281288</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,44 +603,43 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>64490</v>
+        <v>64921</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>66382</v>
+        <v>66807</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>67188</v>
+        <v>67612</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>69538</v>
+        <v>70011</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>70134</v>
+        <v>70646</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>71008</v>
+        <v>71509</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>72907</v>
+        <v>73439</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>75707</v>
+        <v>76231</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>79418</v>
+        <v>80055</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>23.1477748488138</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>23.3114092512438</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>2.4156723426388</v>
+      </c>
       <c r="N9" s="3" t="n">
-        <v>2.39981084746872</v>
+        <v>2.31851989730816</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>2.30233557093089</v>
-      </c>
-      <c r="P9" s="3" t="n">
-        <v>2.49737899998521</v>
+        <v>2.51291703517595</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,44 +650,43 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>836632</v>
+        <v>863892</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>829993</v>
+        <v>856092</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>842037</v>
+        <v>868437</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>852740</v>
+        <v>880634</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>845515</v>
+        <v>873150</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>841521</v>
+        <v>868684</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>846087</v>
+        <v>874242</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>876252</v>
+        <v>905111</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>901614</v>
+        <v>930340</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>7.76709473221201</v>
-      </c>
-      <c r="M10" s="3"/>
+        <v>7.69170220351618</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0.784334719855884</v>
+      </c>
       <c r="N10" s="3" t="n">
-        <v>0.776457297691069</v>
+        <v>0.757151307691273</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.748839999702877</v>
-      </c>
-      <c r="P10" s="3" t="n">
-        <v>0.804082166140074</v>
+        <v>0.81152546587111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,44 +697,43 @@
         <v>14</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>862065</v>
+        <v>873181</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>865227</v>
+        <v>876180</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>887855</v>
+        <v>898983</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>906238</v>
+        <v>917978</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>919991</v>
+        <v>932067</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>932749</v>
+        <v>945000</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>961355</v>
+        <v>973779</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1000323</v>
+        <v>1013537</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1047103</v>
+        <v>1060737</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>21.464506736731</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>21.4796244993879</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>2.39520740409445</v>
+      </c>
       <c r="N11" s="3" t="n">
-        <v>2.38998418358811</v>
+        <v>2.36850659206849</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>2.36311260185804</v>
-      </c>
-      <c r="P11" s="3" t="n">
-        <v>2.41686281944036</v>
+        <v>2.42191518050221</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,44 +744,43 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>74863</v>
+        <v>75141</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>78292</v>
+        <v>78600</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>81414</v>
+        <v>81718</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>86112</v>
+        <v>86380</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>88426</v>
+        <v>88764</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>91304</v>
+        <v>91621</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>96428</v>
+        <v>96781</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>101911</v>
+        <v>102287</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>109731</v>
+        <v>110178</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>46.5757450275837</v>
-      </c>
-      <c r="M12" s="3"/>
+        <v>46.6283387232004</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>4.67702816586579</v>
+      </c>
       <c r="N12" s="3" t="n">
-        <v>4.6747021109371</v>
+        <v>4.58847975619945</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>4.58599257604078</v>
-      </c>
-      <c r="P12" s="3" t="n">
-        <v>4.76348688900305</v>
+        <v>4.76565154383526</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,44 +791,43 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>787202</v>
+        <v>798040</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>786935</v>
+        <v>797580</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>806441</v>
+        <v>817265</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>820126</v>
+        <v>831598</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>831565</v>
+        <v>843303</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>841445</v>
+        <v>853379</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>864927</v>
+        <v>876998</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>898412</v>
+        <v>911250</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>937372</v>
+        <v>950559</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>19.0764251107086</v>
-      </c>
-      <c r="M13" s="3"/>
+        <v>19.1116986617212</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>2.15774899690813</v>
+      </c>
       <c r="N13" s="3" t="n">
-        <v>2.1498062844987</v>
+        <v>2.12974427837298</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>2.12160953356761</v>
-      </c>
-      <c r="P13" s="3" t="n">
-        <v>2.17801082082179</v>
+        <v>2.18576139454074</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,44 +838,43 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1265005</v>
+        <v>1271462</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1242813</v>
+        <v>1248978</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1280887</v>
+        <v>1287284</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1298632</v>
+        <v>1305328</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1321753</v>
+        <v>1328714</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>1309646</v>
+        <v>1316515</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1367428</v>
+        <v>1374658</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>1396091</v>
+        <v>1403453</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1456559</v>
+        <v>1464750</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>15.1425488436805</v>
-      </c>
-      <c r="M14" s="3"/>
+        <v>15.2020272725414</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>1.79465324231138</v>
+      </c>
       <c r="N14" s="3" t="n">
-        <v>1.78827835008304</v>
+        <v>1.77233595677668</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>1.76590439493969</v>
-      </c>
-      <c r="P14" s="3" t="n">
-        <v>1.81065722429894</v>
+        <v>1.8169754217225</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,44 +885,43 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>104694</v>
+        <v>104926</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>110249</v>
+        <v>110507</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>117700</v>
+        <v>117958</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>125940</v>
+        <v>126172</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>129022</v>
+        <v>129236</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>131039</v>
+        <v>131252</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>139745</v>
+        <v>139980</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>146624</v>
+        <v>146834</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>158791</v>
+        <v>159070</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>51.6715380059984</v>
-      </c>
-      <c r="M15" s="3"/>
+        <v>51.6020814669386</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>4.95456449286238</v>
+      </c>
       <c r="N15" s="3" t="n">
-        <v>4.96420459329987</v>
+        <v>4.88045381818363</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>4.89001796523099</v>
-      </c>
-      <c r="P15" s="3" t="n">
-        <v>5.03844369209847</v>
+        <v>5.02872753566031</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,44 +932,43 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1160311</v>
+        <v>1166536</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1132564</v>
+        <v>1138471</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1163187</v>
+        <v>1169326</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1172692</v>
+        <v>1179156</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1192731</v>
+        <v>1199478</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>1178607</v>
+        <v>1185263</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>1227683</v>
+        <v>1234678</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>1249467</v>
+        <v>1256619</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1297768</v>
+        <v>1305680</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>11.8465652743101</v>
-      </c>
-      <c r="M16" s="3"/>
+        <v>11.927964503453</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>1.46158762726398</v>
+      </c>
       <c r="N16" s="3" t="n">
-        <v>1.4523064950815</v>
+        <v>1.43818233479511</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>1.42883819597275</v>
-      </c>
-      <c r="P16" s="3" t="n">
-        <v>1.4757802242146</v>
+        <v>1.48499832014226</v>
       </c>
     </row>
   </sheetData>

--- a/tables/table_general_admissions_2011_2019.xlsx
+++ b/tables/table_general_admissions_2011_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Analise</t>
   </si>
@@ -80,6 +80,24 @@
   </si>
   <si>
     <t xml:space="preserve">admissoes_gerais_non_uti_70_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_non_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_uti_non_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_non_uti_non_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_uti_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_non_uti_elderly</t>
   </si>
 </sst>
 </file>
@@ -205,21 +223,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q22" activeCellId="0" sqref="Q22"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="12.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,13 +274,13 @@
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -303,13 +321,14 @@
       <c r="L2" s="3" t="n">
         <v>6.74298241035545</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="n">
         <v>0.810210347927232</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="O2" s="3" t="n">
         <v>0.800732793666747</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="P2" s="3" t="n">
         <v>0.819688793292706</v>
       </c>
     </row>
@@ -350,13 +369,14 @@
       <c r="L3" s="3" t="n">
         <v>35.5905370153818</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="n">
         <v>3.56802009203969</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="O3" s="3" t="n">
         <v>3.52559420906431</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="P3" s="3" t="n">
         <v>3.61046336159045</v>
       </c>
     </row>
@@ -397,13 +417,14 @@
       <c r="L4" s="3" t="n">
         <v>5.33869304485474</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="n">
         <v>0.658632039965479</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="O4" s="3" t="n">
         <v>0.648908462221431</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="P4" s="3" t="n">
         <v>0.668356557093452</v>
       </c>
     </row>
@@ -444,13 +465,14 @@
       <c r="L5" s="3" t="n">
         <v>0.535905967378135</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="n">
         <v>0.0961350720773524</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="O5" s="3" t="n">
         <v>0.0834985269954514</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="P5" s="3" t="n">
         <v>0.108773212649749</v>
       </c>
     </row>
@@ -491,13 +513,14 @@
       <c r="L6" s="3" t="n">
         <v>16.247938365604</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="n">
         <v>1.48614332589181</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="O6" s="3" t="n">
         <v>1.40163694230189</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="P6" s="3" t="n">
         <v>1.57072013565123</v>
       </c>
     </row>
@@ -538,13 +561,14 @@
       <c r="L7" s="3" t="n">
         <v>0.190148427142625</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="n">
         <v>0.0636676279243797</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="O7" s="3" t="n">
         <v>0.0508874432200823</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="P7" s="3" t="n">
         <v>0.0764494451291453</v>
       </c>
     </row>
@@ -585,13 +609,14 @@
       <c r="L8" s="3" t="n">
         <v>8.78346879296478</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="n">
         <v>0.905507103380021</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="O8" s="3" t="n">
         <v>0.879328786785827</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="P8" s="3" t="n">
         <v>0.931692213281288</v>
       </c>
     </row>
@@ -632,13 +657,14 @@
       <c r="L9" s="3" t="n">
         <v>23.3114092512438</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="n">
         <v>2.4156723426388</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="O9" s="3" t="n">
         <v>2.31851989730816</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="P9" s="3" t="n">
         <v>2.51291703517595</v>
       </c>
     </row>
@@ -679,13 +705,14 @@
       <c r="L10" s="3" t="n">
         <v>7.69170220351618</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="n">
         <v>0.784334719855884</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="O10" s="3" t="n">
         <v>0.757151307691273</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="P10" s="3" t="n">
         <v>0.81152546587111</v>
       </c>
     </row>
@@ -726,13 +753,14 @@
       <c r="L11" s="3" t="n">
         <v>21.4796244993879</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="n">
         <v>2.39520740409445</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="O11" s="3" t="n">
         <v>2.36850659206849</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="P11" s="3" t="n">
         <v>2.42191518050221</v>
       </c>
     </row>
@@ -773,13 +801,14 @@
       <c r="L12" s="3" t="n">
         <v>46.6283387232004</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="n">
         <v>4.67702816586579</v>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="O12" s="3" t="n">
         <v>4.58847975619945</v>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="P12" s="3" t="n">
         <v>4.76565154383526</v>
       </c>
     </row>
@@ -820,13 +849,14 @@
       <c r="L13" s="3" t="n">
         <v>19.1116986617212</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="n">
         <v>2.15774899690813</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="O13" s="3" t="n">
         <v>2.12974427837298</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="P13" s="3" t="n">
         <v>2.18576139454074</v>
       </c>
     </row>
@@ -867,13 +897,14 @@
       <c r="L14" s="3" t="n">
         <v>15.2020272725414</v>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="n">
         <v>1.79465324231138</v>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="O14" s="3" t="n">
         <v>1.77233595677668</v>
       </c>
-      <c r="O14" s="3" t="n">
+      <c r="P14" s="3" t="n">
         <v>1.8169754217225</v>
       </c>
     </row>
@@ -914,13 +945,14 @@
       <c r="L15" s="3" t="n">
         <v>51.6020814669386</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="n">
         <v>4.95456449286238</v>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="O15" s="3" t="n">
         <v>4.88045381818363</v>
       </c>
-      <c r="O15" s="3" t="n">
+      <c r="P15" s="3" t="n">
         <v>5.02872753566031</v>
       </c>
     </row>
@@ -961,14 +993,303 @@
       <c r="L16" s="3" t="n">
         <v>11.927964503453</v>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="n">
         <v>1.46158762726398</v>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="O16" s="3" t="n">
         <v>1.43818233479511</v>
       </c>
-      <c r="O16" s="3" t="n">
+      <c r="P16" s="3" t="n">
         <v>1.48499832014226</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>5039982</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>4935269</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>4890078</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>4965148</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>4922256</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>4826905</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>4910908</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>5077993</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>5143596</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>2.05584067562146</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="n">
+        <v>0.250598342006092</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>0.239218167657662</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>0.261979808347523</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>153443</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>156757</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>156712</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>161163</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>160838</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>162158</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>166564</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>171725</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>182960</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>19.2364591411795</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="n">
+        <v>1.88977113447928</v>
+      </c>
+      <c r="O18" s="3" t="n">
+        <v>1.82600366546395</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>1.95357853720464</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>4886539</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>4778512</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>4733366</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>4803985</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>4761418</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>4664747</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>4744344</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>4906268</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>4960636</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>1.51634930162227</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="n">
+        <v>0.195280386577612</v>
+      </c>
+      <c r="O19" s="3" t="n">
+        <v>0.18371454090611</v>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>0.206847567483948</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2144643</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>2125158</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>2186267</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>2223306</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>2260781</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>2261515</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>2348437</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>2416990</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>2525487</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>17.7579205490145</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="n">
+        <v>2.04300210867354</v>
+      </c>
+      <c r="O20" s="3" t="n">
+        <v>2.02587807324528</v>
+      </c>
+      <c r="P20" s="3" t="n">
+        <v>2.06012901820192</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>180067</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>189107</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>199676</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>212552</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>218000</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>222873</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>236761</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>249121</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>269248</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>49.526565111875</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3" t="n">
+        <v>4.84054849133848</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>4.78371011611165</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>4.89741769770207</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1964576</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>1936051</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>1986591</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>2010754</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>2042781</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>2038642</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>2111676</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>2167869</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>2256239</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>14.846104197547</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="n">
+        <v>1.74968914783749</v>
+      </c>
+      <c r="O22" s="3" t="n">
+        <v>1.73172972834583</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>1.76765173783211</v>
       </c>
     </row>
   </sheetData>
